--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed4/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.416300000000001</v>
+        <v>9.271299999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.638899999999995</v>
+        <v>-7.7293</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.692100000000005</v>
+        <v>-7.690800000000005</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.0797</v>
+        <v>-22.10599999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>7.091700000000007</v>
+        <v>6.666300000000007</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.00509999999999</v>
+        <v>-12.09410000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,13 +586,13 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.032299999999997</v>
+        <v>5.2858</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.992299999999991</v>
+        <v>-7.683799999999992</v>
       </c>
     </row>
     <row r="12">
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.35840000000001</v>
+        <v>-22.43950000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -648,15 +648,15 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.442899999999998</v>
+        <v>-8.309699999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.60819999999999</v>
+        <v>-21.7353</v>
       </c>
       <c r="B16" t="n">
-        <v>4.163199999999998</v>
+        <v>4.213299999999995</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.1659</v>
+        <v>-22.26320000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.80059999999999</v>
+        <v>-20.13149999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.7202</v>
+        <v>-12.8378</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,13 +754,13 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.272799999999995</v>
+        <v>9.407599999999995</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.040899999999997</v>
+        <v>-7.054399999999999</v>
       </c>
     </row>
     <row r="24">
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.4009</v>
+        <v>5.2687</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.38069999999999</v>
+        <v>-21.4186</v>
       </c>
       <c r="B26" t="n">
-        <v>4.774100000000003</v>
+        <v>4.781600000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.82999999999999</v>
+        <v>-22.022</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.74919999999999</v>
+        <v>-12.88849999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.64869999999997</v>
+        <v>-21.65009999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.1184</v>
+        <v>-12.23570000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.990599999999993</v>
+        <v>-7.217099999999999</v>
       </c>
     </row>
     <row r="31">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.49860000000001</v>
+        <v>-12.6647</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.420299999999999</v>
+        <v>9.524700000000003</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.6906</v>
+        <v>-21.717</v>
       </c>
       <c r="B35" t="n">
-        <v>3.830399999999999</v>
+        <v>3.813099999999997</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.64189999999998</v>
+        <v>-20.69339999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.30369999999999</v>
+        <v>-14.38229999999998</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,10 +967,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.7977</v>
+        <v>-11.58870000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.400999999999997</v>
+        <v>-7.414199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.38480000000001</v>
+        <v>-12.70600000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.645300000000002</v>
+        <v>-7.652400000000004</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-13.0493</v>
+        <v>-12.4254</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.690800000000005</v>
+        <v>-7.549400000000009</v>
       </c>
     </row>
     <row r="44">
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.667800000000003</v>
+        <v>4.831200000000004</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.6255</v>
+        <v>-21.68409999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.75389999999999</v>
+        <v>-13.61469999999998</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.417400000000002</v>
+        <v>-7.378300000000003</v>
       </c>
     </row>
     <row r="48">
@@ -1104,10 +1104,10 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>7.046000000000001</v>
+        <v>6.825800000000003</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.2126</v>
+        <v>-12.51400000000001</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>4.880699999999999</v>
+        <v>4.924</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.34069999999999</v>
+        <v>-11.21129999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.735999999999999</v>
+        <v>5.4836</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.93209999999999</v>
+        <v>-22.06229999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.9128</v>
+        <v>-12.71849999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.11669999999999</v>
+        <v>-22.0938</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.60389999999999</v>
+        <v>-12.58649999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1289,7 +1289,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.55039999999999</v>
+        <v>-14.35909999999998</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.55249999999999</v>
+        <v>-10.44</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.887199999999996</v>
+        <v>4.879799999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>4.880399999999999</v>
+        <v>4.868099999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58369999999999</v>
+        <v>-21.55819999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.130000000000003</v>
+        <v>9.220100000000008</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1485,15 +1485,15 @@
         <v>8.09</v>
       </c>
       <c r="C75" t="n">
-        <v>-11.96779999999999</v>
+        <v>-12.04139999999998</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.120899999999997</v>
+        <v>-7.4918</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.7323</v>
+        <v>-19.96309999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.72519999999997</v>
+        <v>-21.74339999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>9.357399999999988</v>
+        <v>5.9207</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.130099999999993</v>
+        <v>9.416699999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9689</v>
+        <v>-21.99290000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.5378</v>
+        <v>-11.3465</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.65529999999998</v>
+        <v>-21.57019999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.1566</v>
+        <v>-10.16070000000001</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1706,13 +1706,13 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>7.257000000000004</v>
+        <v>7.591900000000003</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.203099999999998</v>
+        <v>-7.489399999999998</v>
       </c>
     </row>
     <row r="92">
@@ -1726,18 +1726,18 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.381500000000004</v>
+        <v>-6.350800000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.5975</v>
+        <v>-21.55610000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.7291</v>
+        <v>-11.0084</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.509600000000002</v>
+        <v>-7.462600000000004</v>
       </c>
     </row>
     <row r="96">
@@ -1782,15 +1782,15 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.091699999999998</v>
+        <v>-7.794299999999994</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.5999</v>
+        <v>-21.5624</v>
       </c>
       <c r="B97" t="n">
-        <v>4.792599999999993</v>
+        <v>4.794099999999991</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.160500000000001</v>
+        <v>6.2834</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.9049</v>
+        <v>-11.9512</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.078699999999996</v>
+        <v>-8.598099999999997</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>10.12370000000001</v>
+        <v>9.985200000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,10 +1905,10 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.81049999999999</v>
+        <v>-12.40170000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.939599999999996</v>
+        <v>-7.542199999999999</v>
       </c>
     </row>
   </sheetData>
